--- a/biology/Botanique/Guatteria_ouregou/Guatteria_ouregou.xlsx
+++ b/biology/Botanique/Guatteria_ouregou/Guatteria_ouregou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Guatteria ouregou est une espèce de petit arbre endémique de Guyane, appartenant à la famille des Annonaceae, connue en Guyane sous les noms de Corossol sauvage (Créole), Ɨwi (Wayãpi), Kiriksau (Palikur), Mamanyaoué, Mamanyaoui, Mamayawé (Nenge tongo), Ouregou (anciennement chez les Galibi)[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Guatteria ouregou est une espèce de petit arbre endémique de Guyane, appartenant à la famille des Annonaceae, connue en Guyane sous les noms de Corossol sauvage (Créole), Ɨwi (Wayãpi), Kiriksau (Palikur), Mamanyaoué, Mamanyaoui, Mamayawé (Nenge tongo), Ouregou (anciennement chez les Galibi).
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Guatteria ouregou se caractérise par la combinaison de poils bruns et dressés sur la plupart des parties végétatives, ses monocarpes relativement grands et ses pétales de couleur orange à jaune-orange.
 Il s'agit d'un arbre haut de 2-10(-15) m pour 2,5-15 cm de diamètre.
@@ -530,7 +544,7 @@
 Les pétales sont de couleur orange ou jaune-orange in vivo, de forme oblongue-elliptique à étroitement triangulaire, mesurent 15-35 mm par 6-12 mm, avec la face externe densément couverte de poils apprimés.
 Les étamines, longues de  1,5-2 mm, portent un bouclier connectif papillaire.
 On compte 20-40 monocarpes, d'abord verts, puis devenant rouge vineux à noir in vivo (noirs au séchage), de forme ellipsoïdes, mesurant 8-15 x 5-10{-14} mm, subglabres, à sommet arrondi à légèrement apiculé (apiculum &lt; 1 mm de long), à paroi épaisse de 0,3-0,6 mm, portés par un stipemesurant environ 15-35 x 1 mm.
-Les graines mesurent 8-10 x 5-6 mm, sont de forme ellipsoïde, de couleur brun foncé, piquées à cannelées transversalement, avec un wikt:raphé non distinct du reste de la graine[3].
+Les graines mesurent 8-10 x 5-6 mm, sont de forme ellipsoïde, de couleur brun foncé, piquées à cannelées transversalement, avec un wikt:raphé non distinct du reste de la graine.
 </t>
         </is>
       </c>
@@ -559,9 +573,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On rencontre Guatteria ouregou uniquement en Guyane (endémique)[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On rencontre Guatteria ouregou uniquement en Guyane (endémique).
 </t>
         </is>
       </c>
@@ -590,9 +606,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Guatteria ouregou croît dans les forêts anciennes ou secondaires non inondées, sur des sols latéritiques à sableux, autour de 0 à 200 m d'altitude. Il fleurit de septembre à mars et fructifie de septembre à février[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Guatteria ouregou croît dans les forêts anciennes ou secondaires non inondées, sur des sols latéritiques à sableux, autour de 0 à 200 m d'altitude. Il fleurit de septembre à mars et fructifie de septembre à février.
 </t>
         </is>
       </c>
@@ -621,9 +639,11 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Guatteria ouregou contient des alcaloïdes[4] comme la gouregine [5],[6] et dont certains présentent des propriétés anti-corrosives[7].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Guatteria ouregou contient des alcaloïdes comme la gouregine , et dont certains présentent des propriétés anti-corrosives.
 </t>
         </is>
       </c>
@@ -652,9 +672,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet décrit cette plante pour la première fois et propose la diagnose suivante[8] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet décrit cette plante pour la première fois et propose la diagnose suivante : 
 « CANANGA Ouregou. (Tabula 244.) 
 Arbor trunco quinquaginta-pedali, in ſummitate ramoſo ; ramis rectis &amp; declinatis, undique ſparſis, ramulis folioſis. Folia alterna, ovato-oblonga, acuta, glabra, integerrima, ſupernè viridia, infernè ſerruginea, brevi petiolata. Flores axillares, ſolitarii, bini aut termi, pedunculo brevi inſidentes. 
 Lignum, folia trita, fruftus maſticatus, odorem aromaticum exhalant. 
@@ -677,7 +699,7 @@
 Cet arbre eſt nommé OUREGOU par les Galibis. Il croît dans les grandes forêts de la Guiane qui ſont à quarante lieues du bord de la mer. 
 Il étoit en fleur &amp; en fruit dans le mois de Décembre. 
 Les feuilles &amp; les fruits mâchés ont une faveur piquante &amp; légèrement aromatique. 
-Cet arbre diffère des deux Cananga décrits &amp; figurés par Rumph. dans ſon Herb. Amboïn, tom.2. pag. 197. tab. 65 &amp; 66[9]. »
+Cet arbre diffère des deux Cananga décrits &amp; figurés par Rumph. dans ſon Herb. Amboïn, tom.2. pag. 197. tab. 65 &amp; 66. »
 — Fusée-Aublet, 1775.</t>
         </is>
       </c>
